--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846951.1586693197</v>
+        <v>771078.4942643921</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>431491.382910917</v>
+        <v>431491.3829109176</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12084479.76041389</v>
+        <v>12084479.7604139</v>
       </c>
     </row>
     <row r="9">
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>21.45556623733949</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="6">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>124.5388004963448</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>116.325098768111</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>98.420765936237</v>
+        <v>98.42076593623699</v>
       </c>
       <c r="S11" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T11" t="n">
-        <v>34.75970257133864</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>120.7213791789716</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>169.3178429715441</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>108.0031680536329</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.94979525863037</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3983972633722</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9125518617455</v>
@@ -1511,13 +1511,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>117.2039099444747</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>39.30421660832096</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>144.4021047498582</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.38482253818421</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>55.39827731939937</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>26.63252699068719</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>327.3875357440011</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>331.0869178506238</v>
       </c>
       <c r="I14" t="n">
-        <v>178.9002608012674</v>
+        <v>139.3468365538756</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>98.42076593623702</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.905297830925</v>
       </c>
       <c r="H15" t="n">
-        <v>108.0031680536329</v>
+        <v>54.97819333207629</v>
       </c>
       <c r="I15" t="n">
-        <v>74.30881812140659</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>198.3983972633722</v>
@@ -1751,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>138.0177206338936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>31.66360464806499</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.0530565289423</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.38482253818421</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.7742744190617</v>
       </c>
       <c r="S16" t="n">
         <v>217.6140207606494</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.4837081715351</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.5105486125224</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>86.56540842154062</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.932768784465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.905297830925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>108.0031680536329</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>74.30881812140659</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>72.94979525863037</v>
+        <v>24.31535240259262</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>239.2754548352163</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>158.9607559314126</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.71530476535463</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>123.5289014911851</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.3758391310088</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>414.4837081715351</v>
       </c>
       <c r="H20" t="n">
-        <v>331.0869178506238</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>72.45688421054892</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>219.5105486125224</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2801305603485</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>209.0619051954581</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.905297830925</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>74.30881812140659</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>95.73151014004749</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9125518617455</v>
       </c>
       <c r="V21" t="n">
-        <v>168.53343498656</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>46.04619845274994</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2989899909938</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>123.7529098367823</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>88.47941361700282</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>190.2010771834528</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>89.30725745073089</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>4.55384256506873</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>120.2150929262515</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>39.82016024261407</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,28 +2715,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>25.20874520428384</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>199.4782993751476</v>
       </c>
       <c r="I29" t="n">
-        <v>113.3598406884823</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U30" t="n">
         <v>225.8879277888686</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
-        <v>190.2713935802968</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>141.4957998077623</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>44.94101498269133</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.5540262346244</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>354.6663217767705</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>140.3771709750351</v>
       </c>
     </row>
     <row r="36">
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933832</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>113.4450031752937</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>385.6606999583427</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.337861011987447</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>22.34164242902995</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>216.1357776764017</v>
+        <v>199.4782993751479</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>125.3787979092682</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>199.335511512553</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>13.75048056320813</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>134.0618870358387</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="X2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.73453560909468</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C3" t="n">
-        <v>90.73453560909468</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>326.218815629338</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>179.684257656223</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>40.95343223883847</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>298.4948343740486</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>298.4948343740486</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>298.4948343740486</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y3" t="n">
-        <v>90.73453560909468</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,16 +4673,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>838.2603873325102</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>838.2603873325102</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>838.2603873325102</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="W6" t="n">
         <v>603.1082791007675</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4761,16 +4761,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4892,13 +4892,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W9" t="n">
-        <v>23.90796037760316</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X9" t="n">
-        <v>23.90796037760316</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1561.773951086574</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="C11" t="n">
-        <v>1192.811434146163</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="D11" t="n">
-        <v>834.5457355394124</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="E11" t="n">
-        <v>448.7574829411681</v>
+        <v>867.427895235648</v>
       </c>
       <c r="F11" t="n">
-        <v>37.7715781515605</v>
+        <v>456.4419904460404</v>
       </c>
       <c r="G11" t="n">
         <v>37.7715781515605</v>
@@ -5044,13 +5044,13 @@
         <v>94.76073252434981</v>
       </c>
       <c r="K11" t="n">
-        <v>300.9175062625694</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L11" t="n">
-        <v>608.9498412559813</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M11" t="n">
-        <v>968.3017108859926</v>
+        <v>968.3017108859929</v>
       </c>
       <c r="N11" t="n">
         <v>1318.836271911618</v>
@@ -5071,22 +5071,22 @@
         <v>1596.884761764694</v>
       </c>
       <c r="T11" t="n">
-        <v>1561.773951086574</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="U11" t="n">
-        <v>1561.773951086574</v>
+        <v>1375.156934883358</v>
       </c>
       <c r="V11" t="n">
-        <v>1561.773951086574</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="W11" t="n">
-        <v>1561.773951086574</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="X11" t="n">
-        <v>1561.773951086574</v>
+        <v>1253.216147833892</v>
       </c>
       <c r="Y11" t="n">
-        <v>1561.773951086574</v>
+        <v>1253.216147833892</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>985.947826021189</v>
+        <v>676.6315221803111</v>
       </c>
       <c r="C12" t="n">
-        <v>814.9197018075081</v>
+        <v>676.6315221803111</v>
       </c>
       <c r="D12" t="n">
-        <v>665.9852921462568</v>
+        <v>527.6971125190598</v>
       </c>
       <c r="E12" t="n">
-        <v>506.7478371408014</v>
+        <v>368.4596575136044</v>
       </c>
       <c r="F12" t="n">
-        <v>360.2132791676863</v>
+        <v>221.9250995404893</v>
       </c>
       <c r="G12" t="n">
         <v>221.9250995404893</v>
@@ -5120,52 +5120,52 @@
         <v>37.7715781515605</v>
       </c>
       <c r="J12" t="n">
-        <v>78.02054839819856</v>
+        <v>78.02054839819857</v>
       </c>
       <c r="K12" t="n">
-        <v>273.4332924261729</v>
+        <v>273.433292426173</v>
       </c>
       <c r="L12" t="n">
-        <v>597.5942384890417</v>
+        <v>597.5942384890418</v>
       </c>
       <c r="M12" t="n">
-        <v>1027.853994500662</v>
+        <v>1027.853994500663</v>
       </c>
       <c r="N12" t="n">
-        <v>1146.343769973334</v>
+        <v>1271.117258716363</v>
       </c>
       <c r="O12" t="n">
-        <v>1498.318075624453</v>
+        <v>1623.091564367482</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.805418834996</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q12" t="n">
         <v>1888.578907578025</v>
       </c>
       <c r="R12" t="n">
-        <v>1814.892245700621</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S12" t="n">
-        <v>1649.696852561131</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T12" t="n">
-        <v>1449.294431082978</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="U12" t="n">
-        <v>1221.099934252932</v>
+        <v>1660.384410747979</v>
       </c>
       <c r="V12" t="n">
-        <v>985.947826021189</v>
+        <v>1425.232302516236</v>
       </c>
       <c r="W12" t="n">
-        <v>985.947826021189</v>
+        <v>1170.994945788035</v>
       </c>
       <c r="X12" t="n">
-        <v>985.947826021189</v>
+        <v>1052.607157965333</v>
       </c>
       <c r="Y12" t="n">
-        <v>985.947826021189</v>
+        <v>844.8468592003792</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>451.9654163614353</v>
+        <v>206.7077610794674</v>
       </c>
       <c r="C13" t="n">
-        <v>451.9654163614353</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D13" t="n">
-        <v>451.9654163614353</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E13" t="n">
-        <v>451.9654163614353</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F13" t="n">
-        <v>451.9654163614353</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G13" t="n">
-        <v>412.2641874641414</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H13" t="n">
-        <v>251.6977673314014</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I13" t="n">
-        <v>105.8370554628577</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J13" t="n">
         <v>37.7715781515605</v>
       </c>
       <c r="K13" t="n">
-        <v>57.9817912676671</v>
+        <v>57.98179126766711</v>
       </c>
       <c r="L13" t="n">
         <v>139.3703405264044</v>
@@ -5214,37 +5214,37 @@
         <v>334.9213634561165</v>
       </c>
       <c r="O13" t="n">
-        <v>410.670029124581</v>
+        <v>410.6700291245811</v>
       </c>
       <c r="P13" t="n">
-        <v>451.9654163614353</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="Q13" t="n">
-        <v>451.9654163614353</v>
+        <v>396.0075604832542</v>
       </c>
       <c r="R13" t="n">
-        <v>451.9654163614353</v>
+        <v>233.609303494303</v>
       </c>
       <c r="S13" t="n">
-        <v>451.9654163614353</v>
+        <v>233.609303494303</v>
       </c>
       <c r="T13" t="n">
-        <v>451.9654163614353</v>
+        <v>233.609303494303</v>
       </c>
       <c r="U13" t="n">
-        <v>451.9654163614353</v>
+        <v>233.609303494303</v>
       </c>
       <c r="V13" t="n">
-        <v>451.9654163614353</v>
+        <v>233.609303494303</v>
       </c>
       <c r="W13" t="n">
-        <v>451.9654163614353</v>
+        <v>206.7077610794674</v>
       </c>
       <c r="X13" t="n">
-        <v>451.9654163614353</v>
+        <v>206.7077610794674</v>
       </c>
       <c r="Y13" t="n">
-        <v>451.9654163614353</v>
+        <v>206.7077610794674</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>883.6046229958963</v>
+        <v>923.9430934507634</v>
       </c>
       <c r="C14" t="n">
-        <v>883.6046229958963</v>
+        <v>923.9430934507634</v>
       </c>
       <c r="D14" t="n">
-        <v>883.6046229958963</v>
+        <v>923.9430934507634</v>
       </c>
       <c r="E14" t="n">
-        <v>883.6046229958963</v>
+        <v>923.9430934507634</v>
       </c>
       <c r="F14" t="n">
-        <v>883.6046229958963</v>
+        <v>512.9571886611559</v>
       </c>
       <c r="G14" t="n">
-        <v>552.9101424464002</v>
+        <v>512.9571886611559</v>
       </c>
       <c r="H14" t="n">
-        <v>218.4789122942549</v>
+        <v>178.5259585090106</v>
       </c>
       <c r="I14" t="n">
         <v>37.7715781515605</v>
       </c>
       <c r="J14" t="n">
-        <v>94.76073252435003</v>
+        <v>94.76073252434981</v>
       </c>
       <c r="K14" t="n">
-        <v>300.9175062625696</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L14" t="n">
-        <v>608.9498412559817</v>
+        <v>608.9498412559815</v>
       </c>
       <c r="M14" t="n">
-        <v>968.301710885993</v>
+        <v>968.3017108859929</v>
       </c>
       <c r="N14" t="n">
         <v>1318.836271911618</v>
@@ -5302,28 +5302,28 @@
         <v>1888.578907578025</v>
       </c>
       <c r="R14" t="n">
-        <v>1789.163992490917</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="S14" t="n">
-        <v>1789.163992490917</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T14" t="n">
-        <v>1567.436165609581</v>
+        <v>1666.851080696689</v>
       </c>
       <c r="U14" t="n">
-        <v>1567.436165609581</v>
+        <v>1666.851080696689</v>
       </c>
       <c r="V14" t="n">
-        <v>1236.37327826601</v>
+        <v>1666.851080696689</v>
       </c>
       <c r="W14" t="n">
-        <v>883.6046229958963</v>
+        <v>1314.082425426575</v>
       </c>
       <c r="X14" t="n">
-        <v>883.6046229958963</v>
+        <v>1314.082425426575</v>
       </c>
       <c r="Y14" t="n">
-        <v>883.6046229958963</v>
+        <v>923.9430934507634</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>665.9852921462568</v>
+        <v>554.9807253393947</v>
       </c>
       <c r="C15" t="n">
-        <v>665.9852921462568</v>
+        <v>380.5276960582677</v>
       </c>
       <c r="D15" t="n">
-        <v>665.9852921462568</v>
+        <v>231.5932863970164</v>
       </c>
       <c r="E15" t="n">
-        <v>506.7478371408014</v>
+        <v>231.5932863970164</v>
       </c>
       <c r="F15" t="n">
-        <v>360.2132791676863</v>
+        <v>231.5932863970164</v>
       </c>
       <c r="G15" t="n">
-        <v>221.9250995404893</v>
+        <v>93.30510676981939</v>
       </c>
       <c r="H15" t="n">
-        <v>112.8309903954055</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I15" t="n">
         <v>37.7715781515605</v>
       </c>
       <c r="J15" t="n">
-        <v>78.02054839819854</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="K15" t="n">
-        <v>273.4332924261729</v>
+        <v>233.1843221795349</v>
       </c>
       <c r="L15" t="n">
-        <v>597.5942384890416</v>
+        <v>557.3452682424037</v>
       </c>
       <c r="M15" t="n">
-        <v>1027.853994500662</v>
+        <v>987.6050242540246</v>
       </c>
       <c r="N15" t="n">
-        <v>1146.343769973333</v>
+        <v>1444.959489116869</v>
       </c>
       <c r="O15" t="n">
-        <v>1498.318075624453</v>
+        <v>1796.933794767988</v>
       </c>
       <c r="P15" t="n">
-        <v>1763.805418834996</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q15" t="n">
         <v>1888.578907578025</v>
@@ -5384,25 +5384,25 @@
         <v>1888.578907578025</v>
       </c>
       <c r="S15" t="n">
-        <v>1723.383514438535</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="T15" t="n">
-        <v>1522.981092960382</v>
+        <v>1688.176486099871</v>
       </c>
       <c r="U15" t="n">
-        <v>1294.786596130336</v>
+        <v>1459.981989269826</v>
       </c>
       <c r="V15" t="n">
-        <v>1059.634487898593</v>
+        <v>1224.829881038083</v>
       </c>
       <c r="W15" t="n">
-        <v>805.3971311703917</v>
+        <v>970.5925243098814</v>
       </c>
       <c r="X15" t="n">
-        <v>665.9852921462568</v>
+        <v>762.7410241043485</v>
       </c>
       <c r="Y15" t="n">
-        <v>665.9852921462568</v>
+        <v>554.9807253393947</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="C16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="D16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="E16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="F16" t="n">
-        <v>232.1532741789611</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G16" t="n">
-        <v>232.1532741789611</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H16" t="n">
-        <v>232.1532741789611</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I16" t="n">
-        <v>105.8370554628577</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J16" t="n">
         <v>37.7715781515605</v>
       </c>
       <c r="K16" t="n">
-        <v>57.98179126766708</v>
+        <v>57.98179126766711</v>
       </c>
       <c r="L16" t="n">
         <v>139.3703405264044</v>
@@ -5451,37 +5451,37 @@
         <v>334.9213634561165</v>
       </c>
       <c r="O16" t="n">
-        <v>410.670029124581</v>
+        <v>410.6700291245811</v>
       </c>
       <c r="P16" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="Q16" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="R16" t="n">
-        <v>451.9654163614352</v>
+        <v>289.5671593724842</v>
       </c>
       <c r="S16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="T16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="U16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="V16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="W16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="X16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
       <c r="Y16" t="n">
-        <v>232.1532741789611</v>
+        <v>69.75501719000999</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1236.39041217606</v>
+        <v>1192.811434146163</v>
       </c>
       <c r="C17" t="n">
-        <v>867.427895235648</v>
+        <v>1192.811434146163</v>
       </c>
       <c r="D17" t="n">
-        <v>867.427895235648</v>
+        <v>834.5457355394124</v>
       </c>
       <c r="E17" t="n">
-        <v>867.427895235648</v>
+        <v>448.7574829411681</v>
       </c>
       <c r="F17" t="n">
-        <v>456.4419904460404</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G17" t="n">
         <v>37.7715781515605</v>
@@ -5515,7 +5515,7 @@
         <v>37.7715781515605</v>
       </c>
       <c r="J17" t="n">
-        <v>94.76073252434981</v>
+        <v>94.76073252434983</v>
       </c>
       <c r="K17" t="n">
         <v>300.9175062625695</v>
@@ -5524,7 +5524,7 @@
         <v>608.9498412559815</v>
       </c>
       <c r="M17" t="n">
-        <v>968.3017108859926</v>
+        <v>968.3017108859929</v>
       </c>
       <c r="N17" t="n">
         <v>1318.836271911618</v>
@@ -5545,22 +5545,22 @@
         <v>1888.578907578025</v>
       </c>
       <c r="T17" t="n">
-        <v>1888.578907578025</v>
+        <v>1666.851080696689</v>
       </c>
       <c r="U17" t="n">
-        <v>1888.578907578025</v>
+        <v>1666.851080696689</v>
       </c>
       <c r="V17" t="n">
-        <v>1888.578907578025</v>
+        <v>1666.851080696689</v>
       </c>
       <c r="W17" t="n">
-        <v>1888.578907578025</v>
+        <v>1579.411274210285</v>
       </c>
       <c r="X17" t="n">
-        <v>1888.578907578025</v>
+        <v>1579.411274210285</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.990252240181</v>
+        <v>1579.411274210285</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.3727310886351</v>
+        <v>197.009033157016</v>
       </c>
       <c r="C18" t="n">
-        <v>814.9197018075081</v>
+        <v>197.009033157016</v>
       </c>
       <c r="D18" t="n">
-        <v>665.9852921462568</v>
+        <v>197.009033157016</v>
       </c>
       <c r="E18" t="n">
-        <v>506.7478371408014</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F18" t="n">
-        <v>360.2132791676863</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G18" t="n">
-        <v>221.9250995404893</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H18" t="n">
-        <v>112.8309903954055</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I18" t="n">
         <v>37.7715781515605</v>
@@ -5597,49 +5597,49 @@
         <v>37.7715781515605</v>
       </c>
       <c r="K18" t="n">
-        <v>200.0559462465426</v>
+        <v>59.34209177902898</v>
       </c>
       <c r="L18" t="n">
-        <v>524.2168923094114</v>
+        <v>383.5030378418978</v>
       </c>
       <c r="M18" t="n">
-        <v>954.4766483210321</v>
+        <v>813.7627938535186</v>
       </c>
       <c r="N18" t="n">
-        <v>1411.831113183876</v>
+        <v>1271.117258716363</v>
       </c>
       <c r="O18" t="n">
-        <v>1763.805418834996</v>
+        <v>1623.091564367482</v>
       </c>
       <c r="P18" t="n">
-        <v>1763.805418834996</v>
+        <v>1888.578907578025</v>
       </c>
       <c r="Q18" t="n">
         <v>1888.578907578025</v>
       </c>
       <c r="R18" t="n">
-        <v>1814.89224570062</v>
+        <v>1864.017945555204</v>
       </c>
       <c r="S18" t="n">
-        <v>1814.89224570062</v>
+        <v>1698.822552415715</v>
       </c>
       <c r="T18" t="n">
-        <v>1814.89224570062</v>
+        <v>1498.420130937561</v>
       </c>
       <c r="U18" t="n">
-        <v>1814.89224570062</v>
+        <v>1270.225634107515</v>
       </c>
       <c r="V18" t="n">
-        <v>1814.89224570062</v>
+        <v>1035.073525875772</v>
       </c>
       <c r="W18" t="n">
-        <v>1573.19986707919</v>
+        <v>780.8361691475708</v>
       </c>
       <c r="X18" t="n">
-        <v>1365.348366873657</v>
+        <v>572.984668942038</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.588068108703</v>
+        <v>365.224370177084</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H19" t="n">
-        <v>62.73653245999952</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I19" t="n">
-        <v>62.73653245999952</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="J19" t="n">
         <v>37.7715781515605</v>
       </c>
       <c r="K19" t="n">
-        <v>57.98179126766709</v>
+        <v>57.98179126766711</v>
       </c>
       <c r="L19" t="n">
         <v>139.3703405264044</v>
@@ -5688,37 +5688,37 @@
         <v>334.9213634561165</v>
       </c>
       <c r="O19" t="n">
-        <v>410.670029124581</v>
+        <v>410.6700291245811</v>
       </c>
       <c r="P19" t="n">
-        <v>451.9654163614353</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="Q19" t="n">
-        <v>451.9654163614353</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="R19" t="n">
-        <v>451.9654163614353</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="S19" t="n">
-        <v>451.9654163614353</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3029525927395</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="U19" t="n">
-        <v>223.3029525927395</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="V19" t="n">
-        <v>223.3029525927395</v>
+        <v>327.1887481885211</v>
       </c>
       <c r="W19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y19" t="n">
-        <v>223.3029525927395</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1201.859125387793</v>
+        <v>940.6166671654953</v>
       </c>
       <c r="C20" t="n">
-        <v>1201.859125387793</v>
+        <v>940.6166671654953</v>
       </c>
       <c r="D20" t="n">
-        <v>1201.859125387793</v>
+        <v>940.6166671654953</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.859125387793</v>
+        <v>940.6166671654953</v>
       </c>
       <c r="F20" t="n">
-        <v>790.8732205981856</v>
+        <v>529.6307623758878</v>
       </c>
       <c r="G20" t="n">
-        <v>372.2028083037058</v>
+        <v>110.9603500814079</v>
       </c>
       <c r="H20" t="n">
-        <v>37.7715781515605</v>
+        <v>110.9603500814079</v>
       </c>
       <c r="I20" t="n">
         <v>37.7715781515605</v>
@@ -5755,13 +5755,13 @@
         <v>94.76073252434981</v>
       </c>
       <c r="K20" t="n">
-        <v>300.9175062625694</v>
+        <v>300.9175062625695</v>
       </c>
       <c r="L20" t="n">
         <v>608.9498412559815</v>
       </c>
       <c r="M20" t="n">
-        <v>968.3017108859926</v>
+        <v>968.3017108859929</v>
       </c>
       <c r="N20" t="n">
         <v>1318.836271911618</v>
@@ -5785,19 +5785,19 @@
         <v>1666.851080696689</v>
       </c>
       <c r="U20" t="n">
-        <v>1413.032766999367</v>
+        <v>1666.851080696689</v>
       </c>
       <c r="V20" t="n">
-        <v>1201.859125387793</v>
+        <v>1666.851080696689</v>
       </c>
       <c r="W20" t="n">
-        <v>1201.859125387793</v>
+        <v>1314.082425426575</v>
       </c>
       <c r="X20" t="n">
-        <v>1201.859125387793</v>
+        <v>940.6166671654953</v>
       </c>
       <c r="Y20" t="n">
-        <v>1201.859125387793</v>
+        <v>940.6166671654953</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>880.2786219435513</v>
+        <v>658.6846517265913</v>
       </c>
       <c r="C21" t="n">
-        <v>705.8255926624244</v>
+        <v>484.2316224454643</v>
       </c>
       <c r="D21" t="n">
-        <v>556.8911830011731</v>
+        <v>335.297212784213</v>
       </c>
       <c r="E21" t="n">
-        <v>397.6537279957176</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="F21" t="n">
-        <v>251.1191700226026</v>
+        <v>176.0597577787575</v>
       </c>
       <c r="G21" t="n">
-        <v>112.8309903954055</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="H21" t="n">
-        <v>112.8309903954055</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="I21" t="n">
         <v>37.7715781515605</v>
       </c>
       <c r="J21" t="n">
-        <v>78.02054839819854</v>
+        <v>78.02054839819857</v>
       </c>
       <c r="K21" t="n">
-        <v>273.4332924261729</v>
+        <v>273.433292426173</v>
       </c>
       <c r="L21" t="n">
-        <v>597.5942384890416</v>
+        <v>597.5942384890418</v>
       </c>
       <c r="M21" t="n">
-        <v>813.7627938535184</v>
+        <v>1027.853994500663</v>
       </c>
       <c r="N21" t="n">
-        <v>1271.117258716363</v>
+        <v>1485.208459363507</v>
       </c>
       <c r="O21" t="n">
-        <v>1623.091564367482</v>
+        <v>1837.182765014626</v>
       </c>
       <c r="P21" t="n">
         <v>1888.578907578025</v>
@@ -5858,25 +5858,25 @@
         <v>1888.578907578025</v>
       </c>
       <c r="S21" t="n">
-        <v>1888.578907578025</v>
+        <v>1791.880412487068</v>
       </c>
       <c r="T21" t="n">
-        <v>1888.578907578025</v>
+        <v>1791.880412487068</v>
       </c>
       <c r="U21" t="n">
-        <v>1888.578907578025</v>
+        <v>1563.685915657022</v>
       </c>
       <c r="V21" t="n">
-        <v>1718.343114662308</v>
+        <v>1328.53380742528</v>
       </c>
       <c r="W21" t="n">
-        <v>1464.105757934106</v>
+        <v>1074.296450697078</v>
       </c>
       <c r="X21" t="n">
-        <v>1256.254257728573</v>
+        <v>866.4449504915451</v>
       </c>
       <c r="Y21" t="n">
-        <v>1048.493958963619</v>
+        <v>658.6846517265913</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>231.1728372179051</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="C22" t="n">
-        <v>231.1728372179051</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="D22" t="n">
-        <v>231.1728372179051</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="E22" t="n">
-        <v>231.1728372179051</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="F22" t="n">
-        <v>84.28288971999478</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="G22" t="n">
         <v>37.7715781515605</v>
@@ -5913,7 +5913,7 @@
         <v>37.7715781515605</v>
       </c>
       <c r="K22" t="n">
-        <v>57.98179126766708</v>
+        <v>57.98179126766711</v>
       </c>
       <c r="L22" t="n">
         <v>139.3703405264044</v>
@@ -5925,37 +5925,37 @@
         <v>334.9213634561165</v>
       </c>
       <c r="O22" t="n">
-        <v>410.670029124581</v>
+        <v>410.6700291245811</v>
       </c>
       <c r="P22" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="Q22" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="R22" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="S22" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="T22" t="n">
-        <v>451.9654163614352</v>
+        <v>451.9654163614354</v>
       </c>
       <c r="U22" t="n">
-        <v>451.9654163614352</v>
+        <v>162.7745173806335</v>
       </c>
       <c r="V22" t="n">
-        <v>451.9654163614352</v>
+        <v>162.7745173806335</v>
       </c>
       <c r="W22" t="n">
-        <v>451.9654163614352</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="X22" t="n">
-        <v>451.9654163614352</v>
+        <v>37.7715781515605</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.1728372179051</v>
+        <v>37.7715781515605</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.9054987607761</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C23" t="n">
-        <v>53.94298182036444</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D23" t="n">
-        <v>53.94298182036444</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036444</v>
@@ -5992,7 +5992,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.483574129469</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W23" t="n">
-        <v>1573.11042906179</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X23" t="n">
-        <v>1199.64467080071</v>
+        <v>1602.560581191294</v>
       </c>
       <c r="Y23" t="n">
-        <v>809.505338824898</v>
+        <v>1602.560581191294</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>438.9553738610022</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="C25" t="n">
-        <v>438.9553738610022</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036444</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W25" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X25" t="n">
-        <v>438.9553738610022</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="Y25" t="n">
-        <v>438.9553738610022</v>
+        <v>58.54282279518134</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>882.8926947117852</v>
+        <v>1700.479318410387</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8926947117852</v>
+        <v>1331.516801469976</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>1331.516801469976</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>1331.516801469976</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>920.5308966803682</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>502.5670885785551</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>175.3723686145579</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>2090.618650386199</v>
       </c>
       <c r="X26" t="n">
-        <v>1269.492534775907</v>
+        <v>2090.618650386199</v>
       </c>
       <c r="Y26" t="n">
-        <v>1269.492534775907</v>
+        <v>1700.479318410387</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>235.9284171545819</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>235.9284171545819</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>235.9284171545819</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>235.9284171545819</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
-        <v>235.9284171545819</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H28" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>525.1020275000139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>525.1020275000139</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2079.343073798764</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="C29" t="n">
-        <v>1710.380556858352</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.380556858352</v>
+        <v>641.224466110677</v>
       </c>
       <c r="E29" t="n">
-        <v>1324.592304260108</v>
+        <v>255.4362135124327</v>
       </c>
       <c r="F29" t="n">
-        <v>913.6063994705003</v>
+        <v>255.4362135124327</v>
       </c>
       <c r="G29" t="n">
-        <v>495.6425913686871</v>
+        <v>255.4362135124327</v>
       </c>
       <c r="H29" t="n">
-        <v>168.44787140469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862886</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.942913862886</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X29" t="n">
-        <v>2465.942913862886</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y29" t="n">
-        <v>2465.942913862886</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
@@ -6545,19 +6545,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6572,13 +6572,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6651,13 +6651,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>246.1363086691491</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
         <v>53.94298182036445</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.9054987607761</v>
+        <v>940.9219833362301</v>
       </c>
       <c r="C32" t="n">
-        <v>53.94298182036445</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D32" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2651.754126389241</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2475.576638703411</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T32" t="n">
-        <v>2256.941971675474</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U32" t="n">
-        <v>2256.941971675474</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>1925.879084331904</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W32" t="n">
-        <v>1573.11042906179</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X32" t="n">
-        <v>1199.64467080071</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y32" t="n">
-        <v>809.505338824898</v>
+        <v>940.9219833362301</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>206.0177557947325</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>206.0177557947325</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W34" t="n">
-        <v>2407.731920981262</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X34" t="n">
-        <v>2179.742370083244</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1620.08070321196</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C35" t="n">
-        <v>1251.118186271548</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D35" t="n">
-        <v>892.8524876647978</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E35" t="n">
-        <v>892.8524876647978</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8524876647978</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036444</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V35" t="n">
-        <v>1993.54646147304</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W35" t="n">
-        <v>1993.54646147304</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X35" t="n">
-        <v>1620.08070321196</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y35" t="n">
-        <v>1620.08070321196</v>
+        <v>1244.294882584544</v>
       </c>
     </row>
     <row r="36">
@@ -6998,19 +6998,19 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036444</v>
@@ -7019,22 +7019,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036444</v>
@@ -7116,31 +7116,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>484.4236418782189</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U37" t="n">
-        <v>484.4236418782189</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y37" t="n">
-        <v>484.4236418782189</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>464.928886609972</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C38" t="n">
-        <v>464.928886609972</v>
+        <v>1546.92347107711</v>
       </c>
       <c r="D38" t="n">
-        <v>464.928886609972</v>
+        <v>1188.657772470359</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1188.657772470359</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7174,13 +7174,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2693.777514238437</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2517.600026552607</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2298.96535952467</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2298.96535952467</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>1967.902472181099</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>1615.133816910985</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X38" t="n">
-        <v>1241.668058649906</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y38" t="n">
-        <v>851.5287266740938</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="39">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.1711973675267</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="C41" t="n">
-        <v>412.2086804271149</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D41" t="n">
-        <v>53.94298182036445</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
         <v>2443.387305656314</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.324418312743</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W41" t="n">
         <v>1759.555763042629</v>
       </c>
       <c r="X41" t="n">
-        <v>1386.090004781549</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1167.771037431648</v>
+        <v>1184.596773089481</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7502,7 +7502,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7511,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>962.1597273639306</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="C44" t="n">
-        <v>593.197210423519</v>
+        <v>940.7524019189434</v>
       </c>
       <c r="D44" t="n">
-        <v>593.197210423519</v>
+        <v>582.486703312193</v>
       </c>
       <c r="E44" t="n">
-        <v>207.4089578252748</v>
+        <v>582.486703312193</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2628.231027242444</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2409.596360214507</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2409.596360214507</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2078.533472870936</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>1725.764817600822</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X44" t="n">
-        <v>1352.299059339742</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y44" t="n">
-        <v>962.1597273639306</v>
+        <v>1309.714918859355</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036444</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W46" t="n">
-        <v>592.7129366954861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>592.7129366954861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>371.9203575519559</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8069,10 +8069,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>137.0548093029748</v>
+        <v>263.0886363161354</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268814</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>85.43550983875423</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>137.0548093029746</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>142.8645561141736</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268814</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>85.43550983875423</v>
       </c>
       <c r="K18" t="n">
-        <v>231.0022310196571</v>
+        <v>88.86702448681505</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>50.29373509393415</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.04346072268814</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>249.4513257225818</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>102.209030612519</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.04346072268817</v>
+        <v>84.04346072268814</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11150,10 +11150,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O42" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22564,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,19 +22631,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>76.70620699074563</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>90.77987799915698</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22679,22 +22679,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22725,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22843,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22913,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>47.14437060749303</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22922,10 +22922,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>116.4754883813142</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23120,7 +23120,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>84.81608375669855</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>114.7662707668343</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>414.4837081715351</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>331.0869178506238</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>184.7508460411838</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2801305603485</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>207.0308792911633</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.390656016771629</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.3983972633722</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>88.56907525900276</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>128.319374382691</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>67.3848225381842</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.39827731939938</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>217.6140207606494</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>259.8904713459038</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>87.09617242753393</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.55342424739175</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>98.42076593623699</v>
       </c>
       <c r="S14" t="n">
         <v>190.3564384189606</v>
@@ -23554,7 +23554,7 @@
         <v>251.2801305603485</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>53.02497472155664</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.94979525863037</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.5434392080944</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>67.75526456958391</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>113.7574433748663</v>
       </c>
       <c r="G16" t="n">
         <v>167.623590991012</v>
@@ -23673,10 +23673,10 @@
         <v>158.9607559314126</v>
       </c>
       <c r="I16" t="n">
-        <v>19.3490482209159</v>
+        <v>144.4021047498582</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>67.3848225381842</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.39827731939938</v>
+        <v>55.39827731939937</v>
       </c>
       <c r="R16" t="n">
-        <v>160.7742744190617</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.4837081715351</v>
       </c>
       <c r="H17" t="n">
         <v>331.0869178506238</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>98.420765936237</v>
+        <v>98.42076593623699</v>
       </c>
       <c r="S17" t="n">
         <v>190.3564384189606</v>
       </c>
       <c r="T17" t="n">
-        <v>219.5105486125224</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2801305603485</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>262.6755602958724</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>123.3051698715886</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.905297830925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>108.0031680536329</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>48.63444285603774</v>
       </c>
       <c r="S18" t="n">
-        <v>163.5434392080944</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3983972633722</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>12.41952832570328</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23907,13 +23907,13 @@
         <v>167.623590991012</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>158.9607559314126</v>
       </c>
       <c r="I19" t="n">
         <v>144.4021047498582</v>
       </c>
       <c r="J19" t="n">
-        <v>42.66951777282958</v>
+        <v>67.3848225381842</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.39827731939938</v>
+        <v>55.39827731939937</v>
       </c>
       <c r="R19" t="n">
-        <v>160.7742744190617</v>
+        <v>37.24537292787657</v>
       </c>
       <c r="S19" t="n">
         <v>217.6140207606494</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.3758391310088</v>
       </c>
       <c r="U19" t="n">
         <v>286.2989899909938</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>331.0869178506238</v>
       </c>
       <c r="I20" t="n">
-        <v>178.9002608012674</v>
+        <v>106.4433765907185</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>98.42076593623702</v>
+        <v>98.42076593623699</v>
       </c>
       <c r="S20" t="n">
         <v>190.3564384189606</v>
@@ -24025,16 +24025,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2801305603485</v>
       </c>
       <c r="V20" t="n">
-        <v>118.6903532746768</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>108.0031680536329</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>74.30881812140659</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>72.94979525863037</v>
+        <v>72.94979525863036</v>
       </c>
       <c r="S21" t="n">
-        <v>163.5434392080944</v>
+        <v>67.81192906804689</v>
       </c>
       <c r="T21" t="n">
         <v>198.3983972633722</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9125518617455</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>64.26715216286527</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>121.577392538262</v>
+        <v>167.623590991012</v>
       </c>
       <c r="H22" t="n">
         <v>158.9607559314126</v>
@@ -24150,7 +24150,7 @@
         <v>144.4021047498582</v>
       </c>
       <c r="J22" t="n">
-        <v>67.38482253818421</v>
+        <v>67.3848225381842</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.39827731939938</v>
+        <v>55.39827731939937</v>
       </c>
       <c r="R22" t="n">
         <v>160.7742744190617</v>
@@ -24183,19 +24183,19 @@
         <v>226.3758391310088</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2989899909938</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>162.7700884998087</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>260.7615551004102</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>179.5300234950162</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>59.30821556748147</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.8801200815005</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24414,13 +24414,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>31.71622331860974</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>329.910940435855</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24603,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592673</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>186.9367937457351</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>124.4444733892095</v>
       </c>
       <c r="I29" t="n">
-        <v>38.57147555637899</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24891,16 +24891,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
-        <v>96.25160475629423</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>223.7770919632453</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>9.537387592120382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>5.616862607170788</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25128,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>59.11784824402446</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>245.8607676810185</v>
       </c>
     </row>
     <row r="36">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>32.98895947127542</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>21.21534578336878</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.14054156282426</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,16 +25599,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2430109230648</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>170.1021609796519</v>
+        <v>186.7596392809057</v>
       </c>
     </row>
     <row r="42">
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>20.04225011366307</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150338</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>207.5405342291584</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>160.6652322457634</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,7 +26043,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>45.19995918853701</v>
@@ -26076,22 +26076,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>152.4611113007523</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457239.5741865233</v>
+        <v>457239.5741865232</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457239.5741865233</v>
+        <v>457239.5741865234</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457239.5741865234</v>
+        <v>457239.5741865233</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623867.4485403729</v>
+        <v>623867.448540373</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>623867.4485403729</v>
+        <v>623867.4485403731</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>623867.4485403731</v>
+        <v>623867.448540373</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159032</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>767171.0727159029</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>767171.0727159031</v>
+        <v>767171.0727159032</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>767171.0727159032</v>
+        <v>767171.0727159031</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="C2" t="n">
         <v>166160.6725313324</v>
       </c>
       <c r="D2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
         <v>232303.6060448229</v>
       </c>
       <c r="F2" t="n">
+        <v>232303.606044823</v>
+      </c>
+      <c r="G2" t="n">
         <v>232303.6060448229</v>
-      </c>
-      <c r="G2" t="n">
-        <v>232303.606044823</v>
       </c>
       <c r="H2" t="n">
         <v>232303.6060448229</v>
       </c>
       <c r="I2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
+        <v>289152.6100157574</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289152.6100157576</v>
+      </c>
+      <c r="N2" t="n">
         <v>289152.6100157575</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>289152.6100157575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289152.6100157574</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289152.6100157576</v>
       </c>
       <c r="P2" t="n">
         <v>289152.6100157575</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>232690.6085665889</v>
+        <v>232690.608566589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>184739.8879912182</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="E4" t="n">
-        <v>43465.61395302291</v>
+        <v>43465.6139530229</v>
       </c>
       <c r="F4" t="n">
         <v>43465.61395302291</v>
@@ -26435,22 +26435,22 @@
         <v>43465.61395302291</v>
       </c>
       <c r="H4" t="n">
-        <v>43465.6139530229</v>
+        <v>43465.61395302291</v>
       </c>
       <c r="I4" t="n">
         <v>44802.6561755686</v>
       </c>
       <c r="J4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="K4" t="n">
         <v>44802.65617556861</v>
       </c>
       <c r="L4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="M4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="N4" t="n">
         <v>44802.65617556861</v>
@@ -26481,13 +26481,13 @@
         <v>33147.79076819281</v>
       </c>
       <c r="F5" t="n">
-        <v>33147.7907681928</v>
+        <v>33147.79076819281</v>
       </c>
       <c r="G5" t="n">
-        <v>33147.7907681928</v>
+        <v>33147.79076819281</v>
       </c>
       <c r="H5" t="n">
-        <v>33147.7907681928</v>
+        <v>33147.79076819281</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26508,7 +26508,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4907.453119873222</v>
+        <v>-17125.4637399136</v>
       </c>
       <c r="C6" t="n">
-        <v>75861.97841167459</v>
+        <v>63643.96779163406</v>
       </c>
       <c r="D6" t="n">
-        <v>75861.9784116745</v>
+        <v>63643.96779163412</v>
       </c>
       <c r="E6" t="n">
-        <v>-77000.40724298175</v>
+        <v>-85911.27118734774</v>
       </c>
       <c r="F6" t="n">
-        <v>155690.2013236072</v>
+        <v>146779.3373792413</v>
       </c>
       <c r="G6" t="n">
-        <v>155690.2013236072</v>
+        <v>146779.3373792412</v>
       </c>
       <c r="H6" t="n">
-        <v>155690.2013236072</v>
+        <v>146779.3373792412</v>
       </c>
       <c r="I6" t="n">
-        <v>10378.58778556102</v>
+        <v>4310.174039741934</v>
       </c>
       <c r="J6" t="n">
-        <v>132058.5331776731</v>
+        <v>125990.119431854</v>
       </c>
       <c r="K6" t="n">
-        <v>195118.4757767795</v>
+        <v>189050.0620309603</v>
       </c>
       <c r="L6" t="n">
-        <v>195118.4757767794</v>
+        <v>189050.0620309601</v>
       </c>
       <c r="M6" t="n">
-        <v>137519.8461012291</v>
+        <v>131451.43235541</v>
       </c>
       <c r="N6" t="n">
-        <v>195118.4757767793</v>
+        <v>189050.0620309602</v>
       </c>
       <c r="O6" t="n">
-        <v>195118.4757767795</v>
+        <v>189050.0620309602</v>
       </c>
       <c r="P6" t="n">
-        <v>195118.4757767795</v>
+        <v>189050.0620309603</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204968</v>
       </c>
       <c r="F3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204968</v>
       </c>
       <c r="G3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204968</v>
       </c>
       <c r="H3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204968</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26801,25 +26801,25 @@
         <v>472.1447268945063</v>
       </c>
       <c r="F4" t="n">
-        <v>472.1447268945062</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="G4" t="n">
-        <v>472.1447268945062</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="H4" t="n">
-        <v>472.1447268945062</v>
+        <v>472.1447268945063</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545555</v>
@@ -26828,7 +26828,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>203.7335492204967</v>
+        <v>203.7335492204968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>202.1425458600493</v>
+        <v>202.1425458600492</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8190293435999861</v>
+        <v>0.8190293435999864</v>
       </c>
       <c r="H11" t="n">
-        <v>8.387884265143361</v>
+        <v>8.387884265143363</v>
       </c>
       <c r="I11" t="n">
-        <v>31.5756287691385</v>
+        <v>31.57562876913851</v>
       </c>
       <c r="J11" t="n">
-        <v>69.51409175136939</v>
+        <v>69.51409175136941</v>
       </c>
       <c r="K11" t="n">
-        <v>104.1836038659568</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L11" t="n">
-        <v>129.2489731401549</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M11" t="n">
         <v>143.8143862294012</v>
@@ -31782,19 +31782,19 @@
         <v>117.7774433963576</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.44595502868307</v>
+        <v>88.44595502868309</v>
       </c>
       <c r="R11" t="n">
-        <v>51.44835200491268</v>
+        <v>51.44835200491269</v>
       </c>
       <c r="S11" t="n">
-        <v>18.6636311672847</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T11" t="n">
-        <v>3.585300951608941</v>
+        <v>3.585300951608942</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06552234748799889</v>
+        <v>0.0655223474879989</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4382193322855967</v>
+        <v>0.4382193322855968</v>
       </c>
       <c r="H12" t="n">
-        <v>4.232276182863527</v>
+        <v>4.232276182863528</v>
       </c>
       <c r="I12" t="n">
         <v>15.08781473000849</v>
       </c>
       <c r="J12" t="n">
-        <v>41.40211682791246</v>
+        <v>41.40211682791247</v>
       </c>
       <c r="K12" t="n">
-        <v>70.76281209104744</v>
+        <v>70.76281209104745</v>
       </c>
       <c r="L12" t="n">
-        <v>95.14933352981784</v>
+        <v>95.14933352981787</v>
       </c>
       <c r="M12" t="n">
         <v>111.0347843251707</v>
@@ -31855,25 +31855,25 @@
         <v>113.9735446719456</v>
       </c>
       <c r="O12" t="n">
-        <v>104.2635268355121</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P12" t="n">
-        <v>83.6806723203961</v>
+        <v>83.68067232039613</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.93831336333337</v>
+        <v>55.93831336333339</v>
       </c>
       <c r="R12" t="n">
-        <v>27.20803889401276</v>
+        <v>27.20803889401277</v>
       </c>
       <c r="S12" t="n">
-        <v>8.139731895743425</v>
+        <v>8.139731895743427</v>
       </c>
       <c r="T12" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449401</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.02883021922931559</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3673883674467973</v>
+        <v>0.3673883674467974</v>
       </c>
       <c r="H13" t="n">
-        <v>3.266416576026982</v>
+        <v>3.266416576026983</v>
       </c>
       <c r="I13" t="n">
-        <v>11.04837017740005</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J13" t="n">
-        <v>25.97435757848857</v>
+        <v>25.97435757848858</v>
       </c>
       <c r="K13" t="n">
-        <v>42.68384850881881</v>
+        <v>42.68384850881882</v>
       </c>
       <c r="L13" t="n">
-        <v>54.62063055659022</v>
+        <v>54.62063055659024</v>
       </c>
       <c r="M13" t="n">
-        <v>57.58979654441023</v>
+        <v>57.58979654441025</v>
       </c>
       <c r="N13" t="n">
-        <v>56.22043990210857</v>
+        <v>56.22043990210859</v>
       </c>
       <c r="O13" t="n">
-        <v>51.92867579148006</v>
+        <v>51.92867579148007</v>
       </c>
       <c r="P13" t="n">
-        <v>44.43395309556536</v>
+        <v>44.43395309556537</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.763765932295</v>
+        <v>30.76376593229501</v>
       </c>
       <c r="R13" t="n">
-        <v>16.51911695810781</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S13" t="n">
-        <v>6.40257727632282</v>
+        <v>6.402577276322821</v>
       </c>
       <c r="T13" t="n">
         <v>1.569750297272679</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.819029343599986</v>
+        <v>0.8190293435999864</v>
       </c>
       <c r="H14" t="n">
-        <v>8.387884265143359</v>
+        <v>8.387884265143363</v>
       </c>
       <c r="I14" t="n">
-        <v>31.57562876913849</v>
+        <v>31.57562876913851</v>
       </c>
       <c r="J14" t="n">
-        <v>69.51409175136938</v>
+        <v>69.51409175136941</v>
       </c>
       <c r="K14" t="n">
-        <v>104.1836038659568</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L14" t="n">
-        <v>129.2489731401549</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M14" t="n">
         <v>143.8143862294012</v>
       </c>
       <c r="N14" t="n">
-        <v>146.1414533519046</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O14" t="n">
-        <v>137.9972303164822</v>
+        <v>137.9972303164823</v>
       </c>
       <c r="P14" t="n">
         <v>117.7774433963576</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.44595502868306</v>
+        <v>88.44595502868309</v>
       </c>
       <c r="R14" t="n">
-        <v>51.44835200491267</v>
+        <v>51.44835200491269</v>
       </c>
       <c r="S14" t="n">
-        <v>18.6636311672847</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T14" t="n">
-        <v>3.585300951608941</v>
+        <v>3.585300951608942</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06552234748799887</v>
+        <v>0.0655223474879989</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4382193322855967</v>
+        <v>0.4382193322855968</v>
       </c>
       <c r="H15" t="n">
-        <v>4.232276182863526</v>
+        <v>4.232276182863528</v>
       </c>
       <c r="I15" t="n">
-        <v>15.08781473000848</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J15" t="n">
-        <v>41.40211682791245</v>
+        <v>41.40211682791247</v>
       </c>
       <c r="K15" t="n">
-        <v>70.76281209104742</v>
+        <v>70.76281209104745</v>
       </c>
       <c r="L15" t="n">
-        <v>95.14933352981782</v>
+        <v>95.14933352981787</v>
       </c>
       <c r="M15" t="n">
         <v>111.0347843251707</v>
@@ -32092,25 +32092,25 @@
         <v>113.9735446719456</v>
       </c>
       <c r="O15" t="n">
-        <v>104.2635268355121</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P15" t="n">
-        <v>83.68067232039608</v>
+        <v>83.68067232039613</v>
       </c>
       <c r="Q15" t="n">
-        <v>55.93831336333336</v>
+        <v>55.93831336333339</v>
       </c>
       <c r="R15" t="n">
-        <v>27.20803889401276</v>
+        <v>27.20803889401277</v>
       </c>
       <c r="S15" t="n">
-        <v>8.139731895743424</v>
+        <v>8.139731895743427</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449401</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.02883021922931559</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3673883674467973</v>
+        <v>0.3673883674467974</v>
       </c>
       <c r="H16" t="n">
-        <v>3.266416576026982</v>
+        <v>3.266416576026983</v>
       </c>
       <c r="I16" t="n">
-        <v>11.04837017740005</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J16" t="n">
-        <v>25.97435757848856</v>
+        <v>25.97435757848858</v>
       </c>
       <c r="K16" t="n">
-        <v>42.6838485088188</v>
+        <v>42.68384850881882</v>
       </c>
       <c r="L16" t="n">
-        <v>54.62063055659021</v>
+        <v>54.62063055659024</v>
       </c>
       <c r="M16" t="n">
-        <v>57.58979654441022</v>
+        <v>57.58979654441025</v>
       </c>
       <c r="N16" t="n">
-        <v>56.22043990210857</v>
+        <v>56.22043990210859</v>
       </c>
       <c r="O16" t="n">
-        <v>51.92867579148005</v>
+        <v>51.92867579148007</v>
       </c>
       <c r="P16" t="n">
-        <v>44.43395309556535</v>
+        <v>44.43395309556537</v>
       </c>
       <c r="Q16" t="n">
-        <v>30.763765932295</v>
+        <v>30.76376593229501</v>
       </c>
       <c r="R16" t="n">
-        <v>16.51911695810781</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S16" t="n">
-        <v>6.402577276322819</v>
+        <v>6.402577276322821</v>
       </c>
       <c r="T16" t="n">
         <v>1.569750297272679</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8190293435999861</v>
+        <v>0.8190293435999864</v>
       </c>
       <c r="H17" t="n">
-        <v>8.387884265143361</v>
+        <v>8.387884265143363</v>
       </c>
       <c r="I17" t="n">
-        <v>31.5756287691385</v>
+        <v>31.57562876913851</v>
       </c>
       <c r="J17" t="n">
-        <v>69.51409175136939</v>
+        <v>69.51409175136941</v>
       </c>
       <c r="K17" t="n">
-        <v>104.1836038659568</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L17" t="n">
-        <v>129.2489731401549</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M17" t="n">
         <v>143.8143862294012</v>
@@ -32256,19 +32256,19 @@
         <v>117.7774433963576</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.44595502868307</v>
+        <v>88.44595502868309</v>
       </c>
       <c r="R17" t="n">
-        <v>51.44835200491268</v>
+        <v>51.44835200491269</v>
       </c>
       <c r="S17" t="n">
-        <v>18.6636311672847</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T17" t="n">
-        <v>3.585300951608941</v>
+        <v>3.585300951608942</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06552234748799889</v>
+        <v>0.0655223474879989</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4382193322855967</v>
+        <v>0.4382193322855968</v>
       </c>
       <c r="H18" t="n">
-        <v>4.232276182863527</v>
+        <v>4.232276182863528</v>
       </c>
       <c r="I18" t="n">
         <v>15.08781473000849</v>
       </c>
       <c r="J18" t="n">
-        <v>41.40211682791246</v>
+        <v>41.40211682791247</v>
       </c>
       <c r="K18" t="n">
-        <v>70.76281209104744</v>
+        <v>70.76281209104745</v>
       </c>
       <c r="L18" t="n">
-        <v>95.14933352981784</v>
+        <v>95.14933352981787</v>
       </c>
       <c r="M18" t="n">
         <v>111.0347843251707</v>
@@ -32329,25 +32329,25 @@
         <v>113.9735446719456</v>
       </c>
       <c r="O18" t="n">
-        <v>104.2635268355121</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P18" t="n">
-        <v>83.6806723203961</v>
+        <v>83.68067232039613</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.93831336333337</v>
+        <v>55.93831336333339</v>
       </c>
       <c r="R18" t="n">
-        <v>27.20803889401276</v>
+        <v>27.20803889401277</v>
       </c>
       <c r="S18" t="n">
-        <v>8.139731895743425</v>
+        <v>8.139731895743427</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449401</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.02883021922931559</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,43 +32384,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3673883674467973</v>
+        <v>0.3673883674467974</v>
       </c>
       <c r="H19" t="n">
-        <v>3.266416576026982</v>
+        <v>3.266416576026983</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04837017740005</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J19" t="n">
-        <v>25.97435757848857</v>
+        <v>25.97435757848858</v>
       </c>
       <c r="K19" t="n">
-        <v>42.68384850881881</v>
+        <v>42.68384850881882</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62063055659022</v>
+        <v>54.62063055659024</v>
       </c>
       <c r="M19" t="n">
-        <v>57.58979654441023</v>
+        <v>57.58979654441025</v>
       </c>
       <c r="N19" t="n">
-        <v>56.22043990210857</v>
+        <v>56.22043990210859</v>
       </c>
       <c r="O19" t="n">
-        <v>51.92867579148006</v>
+        <v>51.92867579148007</v>
       </c>
       <c r="P19" t="n">
-        <v>44.43395309556536</v>
+        <v>44.43395309556537</v>
       </c>
       <c r="Q19" t="n">
-        <v>30.763765932295</v>
+        <v>30.76376593229501</v>
       </c>
       <c r="R19" t="n">
-        <v>16.51911695810781</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S19" t="n">
-        <v>6.40257727632282</v>
+        <v>6.402577276322821</v>
       </c>
       <c r="T19" t="n">
         <v>1.569750297272679</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.819029343599986</v>
+        <v>0.8190293435999864</v>
       </c>
       <c r="H20" t="n">
-        <v>8.387884265143359</v>
+        <v>8.387884265143363</v>
       </c>
       <c r="I20" t="n">
-        <v>31.57562876913849</v>
+        <v>31.57562876913851</v>
       </c>
       <c r="J20" t="n">
-        <v>69.51409175136938</v>
+        <v>69.51409175136941</v>
       </c>
       <c r="K20" t="n">
-        <v>104.1836038659568</v>
+        <v>104.1836038659569</v>
       </c>
       <c r="L20" t="n">
-        <v>129.2489731401549</v>
+        <v>129.248973140155</v>
       </c>
       <c r="M20" t="n">
         <v>143.8143862294012</v>
       </c>
       <c r="N20" t="n">
-        <v>146.1414533519046</v>
+        <v>146.1414533519047</v>
       </c>
       <c r="O20" t="n">
-        <v>137.9972303164822</v>
+        <v>137.9972303164823</v>
       </c>
       <c r="P20" t="n">
         <v>117.7774433963576</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.44595502868306</v>
+        <v>88.44595502868309</v>
       </c>
       <c r="R20" t="n">
-        <v>51.44835200491267</v>
+        <v>51.44835200491269</v>
       </c>
       <c r="S20" t="n">
-        <v>18.6636311672847</v>
+        <v>18.66363116728471</v>
       </c>
       <c r="T20" t="n">
-        <v>3.585300951608941</v>
+        <v>3.585300951608942</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06552234748799887</v>
+        <v>0.0655223474879989</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4382193322855967</v>
+        <v>0.4382193322855968</v>
       </c>
       <c r="H21" t="n">
-        <v>4.232276182863526</v>
+        <v>4.232276182863528</v>
       </c>
       <c r="I21" t="n">
-        <v>15.08781473000848</v>
+        <v>15.08781473000849</v>
       </c>
       <c r="J21" t="n">
-        <v>41.40211682791245</v>
+        <v>41.40211682791247</v>
       </c>
       <c r="K21" t="n">
-        <v>70.76281209104742</v>
+        <v>70.76281209104745</v>
       </c>
       <c r="L21" t="n">
-        <v>95.14933352981782</v>
+        <v>95.14933352981787</v>
       </c>
       <c r="M21" t="n">
         <v>111.0347843251707</v>
@@ -32566,25 +32566,25 @@
         <v>113.9735446719456</v>
       </c>
       <c r="O21" t="n">
-        <v>104.2635268355121</v>
+        <v>104.2635268355122</v>
       </c>
       <c r="P21" t="n">
-        <v>83.68067232039608</v>
+        <v>83.68067232039613</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.93831336333336</v>
+        <v>55.93831336333339</v>
       </c>
       <c r="R21" t="n">
-        <v>27.20803889401276</v>
+        <v>27.20803889401277</v>
       </c>
       <c r="S21" t="n">
-        <v>8.139731895743424</v>
+        <v>8.139731895743427</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7663314314494</v>
+        <v>1.766331431449401</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02883021922931558</v>
+        <v>0.02883021922931559</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3673883674467973</v>
+        <v>0.3673883674467974</v>
       </c>
       <c r="H22" t="n">
-        <v>3.266416576026982</v>
+        <v>3.266416576026983</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04837017740005</v>
+        <v>11.04837017740006</v>
       </c>
       <c r="J22" t="n">
-        <v>25.97435757848856</v>
+        <v>25.97435757848858</v>
       </c>
       <c r="K22" t="n">
-        <v>42.6838485088188</v>
+        <v>42.68384850881882</v>
       </c>
       <c r="L22" t="n">
-        <v>54.62063055659021</v>
+        <v>54.62063055659024</v>
       </c>
       <c r="M22" t="n">
-        <v>57.58979654441022</v>
+        <v>57.58979654441025</v>
       </c>
       <c r="N22" t="n">
-        <v>56.22043990210857</v>
+        <v>56.22043990210859</v>
       </c>
       <c r="O22" t="n">
-        <v>51.92867579148005</v>
+        <v>51.92867579148007</v>
       </c>
       <c r="P22" t="n">
-        <v>44.43395309556535</v>
+        <v>44.43395309556537</v>
       </c>
       <c r="Q22" t="n">
-        <v>30.763765932295</v>
+        <v>30.76376593229501</v>
       </c>
       <c r="R22" t="n">
-        <v>16.51911695810781</v>
+        <v>16.51911695810782</v>
       </c>
       <c r="S22" t="n">
-        <v>6.402577276322819</v>
+        <v>6.402577276322821</v>
       </c>
       <c r="T22" t="n">
         <v>1.569750297272679</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,10 +34789,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,16 +35260,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>57.56480239675687</v>
+        <v>57.56480239675689</v>
       </c>
       <c r="K11" t="n">
         <v>208.239165392141</v>
@@ -35421,7 +35421,7 @@
         <v>362.981686494961</v>
       </c>
       <c r="N11" t="n">
-        <v>354.0753141672979</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O11" t="n">
         <v>288.6992001575409</v>
@@ -35430,7 +35430,7 @@
         <v>208.3431558125707</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.45525581413827</v>
+        <v>78.45525581413828</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>40.6555255016546</v>
+        <v>40.65552550165462</v>
       </c>
       <c r="K12" t="n">
-        <v>197.386610129267</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L12" t="n">
         <v>327.4352990534028</v>
@@ -35500,7 +35500,7 @@
         <v>434.6058141531523</v>
       </c>
       <c r="N12" t="n">
-        <v>119.6866418915871</v>
+        <v>245.7204689047477</v>
       </c>
       <c r="O12" t="n">
         <v>355.5296016677972</v>
@@ -35509,7 +35509,7 @@
         <v>268.169033546003</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.033827013161</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41435668293595</v>
+        <v>20.41435668293597</v>
       </c>
       <c r="L13" t="n">
-        <v>82.21065581690635</v>
+        <v>82.21065581690638</v>
       </c>
       <c r="M13" t="n">
-        <v>97.17367350625082</v>
+        <v>97.17367350625084</v>
       </c>
       <c r="N13" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O13" t="n">
-        <v>76.51380370551973</v>
+        <v>76.51380370551975</v>
       </c>
       <c r="P13" t="n">
-        <v>41.71251236045885</v>
+        <v>41.71251236045886</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>57.56480239675686</v>
+        <v>57.56480239675689</v>
       </c>
       <c r="K14" t="n">
         <v>208.239165392141</v>
@@ -35655,10 +35655,10 @@
         <v>311.1437727206181</v>
       </c>
       <c r="M14" t="n">
-        <v>362.9816864949609</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N14" t="n">
-        <v>354.0753141672978</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O14" t="n">
         <v>288.6992001575409</v>
@@ -35667,7 +35667,7 @@
         <v>208.3431558125707</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.45525581413825</v>
+        <v>78.45525581413828</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>40.65552550165459</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>197.386610129267</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L15" t="n">
         <v>327.4352990534028</v>
@@ -35737,16 +35737,16 @@
         <v>434.6058141531523</v>
       </c>
       <c r="N15" t="n">
-        <v>119.6866418915869</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O15" t="n">
         <v>355.5296016677972</v>
       </c>
       <c r="P15" t="n">
-        <v>268.169033546003</v>
+        <v>92.57082102023946</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.0338270131609</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41435668293595</v>
+        <v>20.41435668293597</v>
       </c>
       <c r="L16" t="n">
-        <v>82.21065581690635</v>
+        <v>82.21065581690638</v>
       </c>
       <c r="M16" t="n">
-        <v>97.17367350625081</v>
+        <v>97.17367350625084</v>
       </c>
       <c r="N16" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O16" t="n">
-        <v>76.51380370551973</v>
+        <v>76.51380370551975</v>
       </c>
       <c r="P16" t="n">
-        <v>41.71251236045884</v>
+        <v>41.71251236045886</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>57.56480239675687</v>
+        <v>57.56480239675689</v>
       </c>
       <c r="K17" t="n">
         <v>208.239165392141</v>
@@ -35895,7 +35895,7 @@
         <v>362.981686494961</v>
       </c>
       <c r="N17" t="n">
-        <v>354.0753141672979</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O17" t="n">
         <v>288.6992001575409</v>
@@ -35904,7 +35904,7 @@
         <v>208.3431558125707</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.45525581413827</v>
+        <v>78.45525581413828</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>163.9236041363455</v>
+        <v>21.78839760350351</v>
       </c>
       <c r="L18" t="n">
         <v>327.4352990534028</v>
@@ -35974,16 +35974,16 @@
         <v>434.6058141531523</v>
       </c>
       <c r="N18" t="n">
-        <v>461.9742069321658</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O18" t="n">
         <v>355.5296016677972</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>268.169033546003</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.033827013161</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.41435668293595</v>
+        <v>20.41435668293597</v>
       </c>
       <c r="L19" t="n">
-        <v>82.21065581690635</v>
+        <v>82.21065581690638</v>
       </c>
       <c r="M19" t="n">
-        <v>97.17367350625082</v>
+        <v>97.17367350625084</v>
       </c>
       <c r="N19" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O19" t="n">
-        <v>76.51380370551973</v>
+        <v>76.51380370551975</v>
       </c>
       <c r="P19" t="n">
-        <v>41.71251236045885</v>
+        <v>41.71251236045886</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>57.56480239675686</v>
+        <v>57.56480239675689</v>
       </c>
       <c r="K20" t="n">
         <v>208.239165392141</v>
@@ -36129,10 +36129,10 @@
         <v>311.1437727206181</v>
       </c>
       <c r="M20" t="n">
-        <v>362.9816864949609</v>
+        <v>362.981686494961</v>
       </c>
       <c r="N20" t="n">
-        <v>354.0753141672978</v>
+        <v>354.075314167298</v>
       </c>
       <c r="O20" t="n">
         <v>288.6992001575409</v>
@@ -36141,7 +36141,7 @@
         <v>208.3431558125707</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.45525581413825</v>
+        <v>78.45525581413828</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>40.65552550165459</v>
+        <v>40.65552550165462</v>
       </c>
       <c r="K21" t="n">
-        <v>197.386610129267</v>
+        <v>197.3866101292671</v>
       </c>
       <c r="L21" t="n">
         <v>327.4352990534028</v>
       </c>
       <c r="M21" t="n">
-        <v>218.3520761257341</v>
+        <v>434.6058141531523</v>
       </c>
       <c r="N21" t="n">
-        <v>461.9742069321658</v>
+        <v>461.9742069321659</v>
       </c>
       <c r="O21" t="n">
         <v>355.5296016677972</v>
       </c>
       <c r="P21" t="n">
-        <v>268.169033546003</v>
+        <v>51.91529551858491</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.41435668293595</v>
+        <v>20.41435668293597</v>
       </c>
       <c r="L22" t="n">
-        <v>82.21065581690635</v>
+        <v>82.21065581690638</v>
       </c>
       <c r="M22" t="n">
-        <v>97.17367350625081</v>
+        <v>97.17367350625084</v>
       </c>
       <c r="N22" t="n">
         <v>100.3526122813372</v>
       </c>
       <c r="O22" t="n">
-        <v>76.51380370551973</v>
+        <v>76.51380370551975</v>
       </c>
       <c r="P22" t="n">
-        <v>41.71251236045884</v>
+        <v>41.71251236045886</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36928,7 +36928,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37156,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,10 +37870,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
